--- a/gogo.xlsx
+++ b/gogo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>Events</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -44,33 +41,15 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>Tagid</t>
-  </si>
-  <si>
-    <t>EventId</t>
-  </si>
-  <si>
     <t>Categories</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
     <t>Table</t>
   </si>
   <si>
-    <t>parrentid</t>
-  </si>
-  <si>
-    <t>isMenu</t>
-  </si>
-  <si>
-    <t>alt</t>
-  </si>
-  <si>
     <t>height</t>
   </si>
   <si>
@@ -83,24 +62,9 @@
     <t>Post(extend)</t>
   </si>
   <si>
-    <t>eventid</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>createdate</t>
-  </si>
-  <si>
     <t>follower</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -110,30 +74,15 @@
     <t xml:space="preserve">user </t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>Keyword</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
-    <t>isImage</t>
-  </si>
-  <si>
     <t>startdate</t>
   </si>
   <si>
-    <t>status(new , publish)</t>
-  </si>
-  <si>
     <t>Createby</t>
   </si>
   <si>
-    <t>role_type</t>
-  </si>
-  <si>
     <t>Quản lý event</t>
   </si>
   <si>
@@ -174,6 +123,90 @@
   </si>
   <si>
     <t>site</t>
+  </si>
+  <si>
+    <t>title(varchar)</t>
+  </si>
+  <si>
+    <t>content(varchar)</t>
+  </si>
+  <si>
+    <t>location(varchar)</t>
+  </si>
+  <si>
+    <t>categoryid(int)</t>
+  </si>
+  <si>
+    <t>type(Thường xuyên, cố định)(smallint)</t>
+  </si>
+  <si>
+    <t>Createby(varchar)</t>
+  </si>
+  <si>
+    <t>id(int)</t>
+  </si>
+  <si>
+    <t>Keyword(varchar)</t>
+  </si>
+  <si>
+    <t>Tagid(int)</t>
+  </si>
+  <si>
+    <t>EventId(int)</t>
+  </si>
+  <si>
+    <t>Title(varchar)</t>
+  </si>
+  <si>
+    <t>Description(varchar)</t>
+  </si>
+  <si>
+    <t>parrentid(int)</t>
+  </si>
+  <si>
+    <t>isMenu(smallint)</t>
+  </si>
+  <si>
+    <t>alt()</t>
+  </si>
+  <si>
+    <t>startdate(date)</t>
+  </si>
+  <si>
+    <t>createdate(date)</t>
+  </si>
+  <si>
+    <t>eventid(int)</t>
+  </si>
+  <si>
+    <t>email(varchar)</t>
+  </si>
+  <si>
+    <t>phone(varchar)</t>
+  </si>
+  <si>
+    <t>author(varchar)</t>
+  </si>
+  <si>
+    <t>status(new , publish)(smallint)</t>
+  </si>
+  <si>
+    <t>createdate(int)</t>
+  </si>
+  <si>
+    <t>role_type(smallint)</t>
+  </si>
+  <si>
+    <t>password(varchar)</t>
+  </si>
+  <si>
+    <t>id (bigint)</t>
+  </si>
+  <si>
+    <t>title_image(varchar)</t>
+  </si>
+  <si>
+    <t>isImage(smallint)</t>
   </si>
 </sst>
 </file>
@@ -527,24 +560,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:AA9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10" customWidth="1"/>
+    <col min="22" max="22" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -552,271 +593,271 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="S1" s="1"/>
       <c r="T1" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="V2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="Y2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AA2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="R3" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="T3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="V3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="AA3" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="N4" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="R4" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="T4" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="V4" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="Y4" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="T5" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="Y5" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="AA5" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P6" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="R6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="V6" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="Y6" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="V7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="V8" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="V9" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -839,52 +880,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
